--- a/artfynd/A 50102-2022.xlsx
+++ b/artfynd/A 50102-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112188960</v>
+        <v>112188940</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>101703</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>222412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332390.5293620516</v>
+        <v>332307.7463945905</v>
       </c>
       <c r="R2" t="n">
-        <v>6627093.89941054</v>
+        <v>6627085.514037748</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112188940</v>
+        <v>112188960</v>
       </c>
       <c r="B3" t="n">
-        <v>101703</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,31 +809,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222412</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>332307.7463945905</v>
+        <v>332390.5293620516</v>
       </c>
       <c r="R3" t="n">
-        <v>6627085.514037748</v>
+        <v>6627093.89941054</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 50102-2022.xlsx
+++ b/artfynd/A 50102-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112188940</v>
+        <v>112188960</v>
       </c>
       <c r="B2" t="n">
-        <v>101703</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,31 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222412</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>332307.7463945905</v>
+        <v>332391</v>
       </c>
       <c r="R2" t="n">
-        <v>6627085.514037748</v>
+        <v>6627094</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -757,19 +756,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112188960</v>
+        <v>112188940</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>101703</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,30 +798,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>222412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -840,10 +830,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>332390.5293620516</v>
+        <v>332308</v>
       </c>
       <c r="R3" t="n">
-        <v>6627093.89941054</v>
+        <v>6627086</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,19 +863,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 50102-2022.xlsx
+++ b/artfynd/A 50102-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112188960</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>112188940</v>
       </c>
       <c r="B3" t="n">
-        <v>101703</v>
+        <v>102166</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 50102-2022.xlsx
+++ b/artfynd/A 50102-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112188960</v>
       </c>
       <c r="B2" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>112188940</v>
       </c>
       <c r="B3" t="n">
-        <v>102166</v>
+        <v>102192</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
